--- a/src/protest_data.xlsx
+++ b/src/protest_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>zcodes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>dates</t>
         </is>
       </c>
@@ -456,17 +461,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alachua County Coalition Candidate Forums</t>
+          <t>March Chapter Meeting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cotton Club Museum and Cultural Center</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>THU, JUL 21</t>
+          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32601</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SAT, MAR 7, 2020</t>
         </is>
       </c>
     </row>
@@ -476,17 +484,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rooted in Love: Zoom Forum #3 - My Story, Our Story (Our School board Members)</t>
+          <t>Reject the Coverup Corner Protest 16th/43rd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Register for the Zoom Meeting, Link on page</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SAT, SEP 19, 2020</t>
+          <t>4222 NW 16th Blvd, Gainesville, FL 32605-3508, United States</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>32605</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WED, FEB 5, 2020</t>
         </is>
       </c>
     </row>
@@ -496,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>March Chapter Meeting</t>
+          <t>February Chapter Meeting</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,9 +515,12 @@
           <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SAT, MAR 7, 2020</t>
+      <c r="D4" t="n">
+        <v>32601</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SAT, FEB 1, 2020</t>
         </is>
       </c>
     </row>
@@ -516,17 +530,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reject the Coverup Corner Protest 16th/43rd</t>
+          <t>January Chapter Meeting</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4222 NW 16th Blvd, Gainesville, FL 32605-3508, United States</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>WED, FEB 5, 2020</t>
+          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>32601</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SAT, JAN 4, 2020</t>
         </is>
       </c>
     </row>
@@ -536,17 +553,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>February Chapter Meeting</t>
+          <t>December Chapter Meeting</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SAT, FEB 1, 2020</t>
+          <t>Headquarters Library, 401 E University Ave, Gainesville, Florida 32601</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>32601</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SAT, DEC 7, 2019</t>
         </is>
       </c>
     </row>
@@ -556,17 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>January Chapter Meeting</t>
+          <t>Indivisible Gainesville November Chapter Meeting</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SAT, JAN 4, 2020</t>
+          <t>Working Food Community Center 219 NW 10th Ave, Gainesville, FL 32601</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>32601</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SAT, NOV 2, 2019</t>
         </is>
       </c>
     </row>
@@ -576,17 +599,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>December Chapter Meeting</t>
+          <t>DefundHate postcards to Congress!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Headquarters Library, 401 E University Ave, Gainesville, Florida 32601</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SAT, DEC 7, 2019</t>
+          <t>Pride Community Center of North Central Florida 3131 NW 13th St, Gainesville, FL 32609</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>32609</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>THU, SEP 12, 2019</t>
         </is>
       </c>
     </row>
@@ -596,17 +622,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How We Win: Workshop on Nonviolent Direct Action</t>
+          <t>Woodland Park Community Picnic!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gainesville Quakers</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SAT, NOV 23, 2019</t>
+          <t>Woodland Park Boys and Girls Club (331 SE 20th Pl, Gainesville, FL 32641)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>32641</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SAT, AUG 17, 2019</t>
         </is>
       </c>
     </row>
@@ -616,17 +645,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Indivisible Gainesville November Chapter Meeting</t>
+          <t>Bi-monthly Postcard writing party!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Working Food Community Center 219 NW 10th Ave, Gainesville, FL 32601</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SAT, NOV 2, 2019</t>
+          <t>Gainesville Friends Meeting House 702 NW 38th St, Gainesville, FL 32607</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>32607</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>THU, APR 18, 2019</t>
         </is>
       </c>
     </row>
@@ -636,437 +668,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Indivisible Gainesville October Chapter Meeting</t>
+          <t>Indivisible Gainesville Monthly Chapter Meeting</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alachua County Library Headquarters</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SAT, OCT 5, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DefundHate sidewalk protest!</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Corner of NW 23rd Ave/NW 43rd Street</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FRI, SEP 13, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DefundHate postcards to Congress!</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pride Community Center of North Central Florida 3131 NW 13th St, Gainesville, FL 32609</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>THU, SEP 12, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>After-school Tutoring Program</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Boys &amp;amp; Girls Club Woodland Park</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MON, AUG 26, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Formation Meeting of the Blue Wave Coalition of Alachua County</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Aloft Gainesville University Area</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SUN, AUG 25, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Woodland Park Community Picnic!</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Woodland Park Boys and Girls Club (331 SE 20th Pl, Gainesville, FL 32641)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SAT, AUG 17, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>July Community Picnic!</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Tb Mcferson Park</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SAT, JUL 13, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Travel to Homestead for the Lights 4 Liberty event!</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Homestead, FL</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FRI, JUL 12, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Impeach Trump Day Of Action!</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NW 62nd St &amp;amp; W Newberry Rd/Oaks Mall</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SAT, JUN 15, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>June Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Gainesville Friends Meeting House</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SAT, JUN 1, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ChangeTheDebate Action Plan</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>First Magnitude Brewing Company</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SUN, MAY 19, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Green New Deal Town Hall</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cypress &amp;amp; Grove Brewing Co.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SAT, MAY 11, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>May Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Gainesville Friends Meeting House</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SAT, MAY 4, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Bi-monthly Postcard writing party!</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Gainesville Friends Meeting House 702 NW 38th St, Gainesville, FL 32607</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>THU, APR 18, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>April Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Headquarters Branch Alachua County Library District Meeting Room A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SAT, APR 6, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>One World against Racism and Fascism</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>West University Avenue and 13th Street Intersection</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SAT, MAR 16, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Yoho Sidewalk Protest!</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Greater Gainesville Chamber of Commerce</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>MON, MAR 4, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Indivisible Gainesville Monthly Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Resilience Charter School</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SAT, MAR 2, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Protest The Fake National Emergency!</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>corner of NW 43rd and NW 16th</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MON, FEB 18, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>February Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Cone Park Branch Library</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+          <t>Fred Cone Park 2841 E. University Avenue, Gainesville, Florida 32641</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>32641</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>SAT, FEB 2, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Indivisible Gainesville Monthly Chapter Meeting</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Fred Cone Park 2841 E. University Avenue, Gainesville, Florida 32641</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>SAT, FEB 2, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Indivisible Gainesville - End The Shutdown Corner Protest!</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Corner of Univ Ave/34th Street</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>WED, JAN 23, 2019</t>
         </is>
       </c>
     </row>

--- a/src/protest_data.xlsx
+++ b/src/protest_data.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
+          <t>1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
+          <t>1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gainesville Counseling Center 1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
+          <t>1001 NE 16th Ave, Gainesville, FL 32601-2511, United States</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Headquarters Library, 401 E University Ave, Gainesville, Florida 32601</t>
+          <t>401 E University Ave, Gainesville, Florida 32601</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Working Food Community Center 219 NW 10th Ave, Gainesville, FL 32601</t>
+          <t>219 NW 10th Ave, Gainesville, FL 32601</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pride Community Center of North Central Florida 3131 NW 13th St, Gainesville, FL 32609</t>
+          <t>3131 NW 13th St, Gainesville, FL 32609</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Woodland Park Boys and Girls Club (331 SE 20th Pl, Gainesville, FL 32641)</t>
+          <t>331 SE 20th Pl, Gainesville, FL 32641)</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gainesville Friends Meeting House 702 NW 38th St, Gainesville, FL 32607</t>
+          <t>702 NW 38th St, Gainesville, FL 32607</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fred Cone Park 2841 E. University Avenue, Gainesville, Florida 32641</t>
+          <t>2841 E. University Avenue, Gainesville, Florida 32641</t>
         </is>
       </c>
       <c r="D11" t="n">

--- a/src/protest_data.xlsx
+++ b/src/protest_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,190 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>March to Protect The Results!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10019, United States</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10019</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SAT, NOV 7, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tell Melinda Katz: COVID Behind Bars = Death</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>125-01 Queens Blvd, Kew Gardens, NY 11415, United States</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11415</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MON, JUL 13, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pre-Super Tuesday #NeverBloomberg March</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1216 5th Ave. New York, NY 10029 (at E. 103 St.)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10029</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SAT, FEB 29, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Make Billionaires Pay Town Hall</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>470 Vanderbilt Ave, Brooklyn, NY 11238-2208, United States</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11238</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>THU, FEB 27, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Movement for a Green New Deal Town Hall</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>713 Caton Ave, Brooklyn, NY 11218-2661, United States</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11218</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>THU, FEB 20, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Make Billionaires Pay! Community Town Hall</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>61 Broadway, Ny, Ny 10006</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10006</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SAT, FEB 8, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mental Health Care and the New York Health Act: A Panel Discussion</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>131 West 33rd Street, New York, NY 10001</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10001</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>THU, JAN 30, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Arena NYC Monthly Meetup with Ritchie Torres</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>171 Elizabeth St, New York, NY 10012-4607, United States</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10012</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MON, JAN 27, 2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
